--- a/data/trans_bre/P23_11_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_11_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>9,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>4,82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>249,36%</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>99,48%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>79,24%</t>
+          <t>298,71%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>318,36%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>48,91%</t>
         </is>
       </c>
     </row>
@@ -642,30 +668,40 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 9,48</t>
+          <t>3,47; 18,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 8,71</t>
+          <t>-1,64; 15,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 4,87</t>
+          <t>-1,51; 15,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-43,7; —</t>
+          <t>-5,96; 11,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-61,28; 1064,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>6,08</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>102,28%</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>341,58%</t>
+          <t>328,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>72,34%</t>
+          <t>445,19%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-2,17%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>200,43%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 8,79</t>
+          <t>1,82; 10,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 7,13</t>
+          <t>2,27; 10,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 6,5</t>
+          <t>-15,18; 6,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-63,73; 588,41</t>
+          <t>-0,25; 7,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,77; 1680,21</t>
+          <t>4,32; 1521,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,64; 666,6</t>
+          <t>33,05; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-86,6; 667,37</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-42,67; 1756,94</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>120,15%</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>219,81%</t>
+          <t>103,76%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>36,6%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-24,47%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-9,98%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 5,59</t>
+          <t>-1,92; 6,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 6,31</t>
+          <t>-2,61; 4,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 4,27</t>
+          <t>-10,81; 3,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-42,79; 720,59</t>
+          <t>-9,5; 4,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 1480,85</t>
+          <t>-60,28; 888,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-76,87; 250,15</t>
+          <t>-74,66; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-83,72; 187,09</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-86,84; 241,71</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>116,01%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>233,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>43,41%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 5,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 5,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 4,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,98; 345,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>69,69; 696,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,73; 231,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,72</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,74</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>285,34%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>216,09%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,41%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>52,93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 7,85</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 6,35</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-10,54; 4,07</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 4,72</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>44,17; 955,76</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>28,37; 807,43</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-73,61; 167,32</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-37,02; 258,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_11_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_11_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,183 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>9,22</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,82</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,76</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>298,71%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>318,36%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>48,91%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>9.035195537713815</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.001630996557302</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.915676508555005</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.968220883495748</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>3.130245965427914</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>2.639311673468841</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.5099962614991933</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>3,47; 18,13</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,64; 15,01</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,51; 15,1</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-5,96; 11,41</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>3.399416841475446</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.570942500595994</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.774415959019648</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-5.592768864684985</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>17.71711774674682</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>16.25535063052691</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>12.95602548645473</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>11.35025653597028</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,08</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,92</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,29</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>328,78%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>445,19%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-2,17%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>200,43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1,82; 10,96</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,27; 10,54</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-15,18; 6,48</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 7,71</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>4,32; 1521,7</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>33,05; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-86,6; 667,37</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-42,67; 1756,94</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.45832567135767</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.871940628827542</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.2685139201955455</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.289780792789458</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>4.39333654457665</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>4.478416285044925</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.04185726945490755</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.929194706734867</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,4</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,46</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>103,76%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>36,6%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-24,47%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-9,98%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>2.775345156916757</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>2.235698925936703</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-13.60636898958984</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.3799760177265186</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.1408203788326667</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.3011324989564839</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.850080704072901</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4688530946123368</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,92; 6,62</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,61; 4,95</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,81; 3,69</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-9,5; 4,46</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-60,28; 888,61</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-74,66; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-83,72; 187,09</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-86,84; 241,71</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>14.57433835557929</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>10.57673941782745</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.69579413465026</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.754073150597958</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>20.82174999210143</v>
+      </c>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>7.678745486225647</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>16.30604230667519</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +811,209 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.425811134675282</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.8790837997546995</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.509999680455491</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.569198993669736</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>1.157849451747154</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.4222347673429471</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.244904059656976</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1095954370708871</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.61357574732121</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.34491785349128</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.97046566813615</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-9.789402596434199</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.5615876897179138</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.7439823777592762</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.8553880150216644</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.8745594628495619</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.451139473098349</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.602492810458048</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.881790510164839</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.421564689630018</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>10.36764262199736</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>1.819809468394179</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.470687131342269</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,72</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,74</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>285,34%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>216,09%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-0,41%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>52,93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>2,09; 7,85</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,12; 6,35</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-10,54; 4,07</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,65; 4,72</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>44,17; 955,76</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>28,37; 807,43</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-73,61; 167,32</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-37,02; 258,11</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>5.629422838374218</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.775794732170277</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.04818520363850318</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.746261501057337</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>3.478291761745266</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>2.303897011534671</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.008516178819264246</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.5347195079868448</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2.744977864385162</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.193402582149339</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-9.972173659427188</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.685474214245126</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.6968612615688481</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.3394535379122302</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.7151956921807827</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3785221865034429</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.491085042544293</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.392385516314704</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.160336759127479</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.741229308184633</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>11.5917734970012</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>8.294385816771884</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.700536699440565</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.620445531675269</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
